--- a/ApolloQA/Data/RatingManual/GA/VA00049.IsCombinedDeductibleFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00049.IsCombinedDeductibleFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00049.IsCombinedDeductibleFactors" sheetId="1" r:id="R58b998c9136c4a6b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00049.IsCombinedDeductibleFactors" sheetId="1" r:id="Rfb1b7b91b4634ac1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,10 +12,10 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Combined Deductible</x:v>
+        <x:v>Team Driving</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Combined Deductible Factor</x:v>
+        <x:v>Team Driving Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -31,7 +31,7 @@
         <x:v>Yes</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0500</x:v>
+        <x:v>1.3000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
